--- a/data/evaluation/evaluation_North_Winter_Tomatoes.xlsx
+++ b/data/evaluation/evaluation_North_Winter_Tomatoes.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2715.74081632653</v>
+        <v>2715.083673469388</v>
       </c>
       <c r="C3" t="n">
-        <v>12376744.35790843</v>
+        <v>12374527.289337</v>
       </c>
       <c r="D3" t="n">
-        <v>3518.059743368272</v>
+        <v>3517.744631057946</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.7245424787888401</v>
+        <v>-0.724233558379785</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2634.870377672903</v>
+        <v>2643.090635355657</v>
       </c>
       <c r="C4" t="n">
-        <v>10414886.61298226</v>
+        <v>10932926.19112733</v>
       </c>
       <c r="D4" t="n">
-        <v>3227.21034532648</v>
+        <v>3306.497571619753</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4511824641817506</v>
+        <v>-0.5233647144060729</v>
       </c>
     </row>
     <row r="5">
